--- a/tables/2023-11/regional_table_Nov.xlsx
+++ b/tables/2023-11/regional_table_Nov.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Population size</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Percentage other variants (95% CI)</t>
   </si>
   <si>
-    <t>Undetermined sequences, excluded from further analysis</t>
-  </si>
-  <si>
     <t>Switzerland overall</t>
   </si>
   <si>
@@ -122,142 +119,142 @@
     <t>38.51</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>1.7</t>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
   <si>
     <t>1.3</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>8.6 (6.2-11.6)</t>
-  </si>
-  <si>
-    <t>9.6 (5.3-15.6)</t>
-  </si>
-  <si>
-    <t>5.7 (1.9-12.8)</t>
-  </si>
-  <si>
-    <t>7.4 (0.9-24.3)</t>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>8.2 (6.2-10.7)</t>
+  </si>
+  <si>
+    <t>8.8 (5.4-13.3)</t>
+  </si>
+  <si>
+    <t>6.5 (2.7-13.0)</t>
+  </si>
+  <si>
+    <t>9.1 (3.7-17.8)</t>
   </si>
   <si>
     <t>12.5 (0.3-52.7)</t>
   </si>
   <si>
-    <t>8.8 (4.5-15.2)</t>
-  </si>
-  <si>
-    <t>2.4 (0.1-12.9)</t>
-  </si>
-  <si>
-    <t>5.9 (3.9-8.5)</t>
-  </si>
-  <si>
-    <t>2.7 (0.8-6.9)</t>
-  </si>
-  <si>
-    <t>14.8 (4.2-33.7)</t>
+    <t>8.6 (4.4-14.9)</t>
+  </si>
+  <si>
+    <t>1.6 (0.0-8.4)</t>
+  </si>
+  <si>
+    <t>5.1 (3.5-7.2)</t>
+  </si>
+  <si>
+    <t>2.3 (0.8-5.3)</t>
+  </si>
+  <si>
+    <t>5.6 (2.1-11.8)</t>
   </si>
   <si>
     <t>37.5 (8.5-75.5)</t>
   </si>
   <si>
-    <t>7.2 (3.3-13.2)</t>
-  </si>
-  <si>
-    <t>20.9 (17.2-25.0)</t>
-  </si>
-  <si>
-    <t>15.1 (9.7-21.9)</t>
-  </si>
-  <si>
-    <t>26.1 (17.3-36.6)</t>
-  </si>
-  <si>
-    <t>18.5 (6.3-38.1)</t>
+    <t>7.0 (3.3-12.9)</t>
+  </si>
+  <si>
+    <t>20.9 (17.8-24.4)</t>
+  </si>
+  <si>
+    <t>15.2 (10.7-20.7)</t>
+  </si>
+  <si>
+    <t>23.4 (15.7-32.5)</t>
+  </si>
+  <si>
+    <t>23.4 (14.5-34.4)</t>
   </si>
   <si>
     <t>25.0 (3.2-65.1)</t>
   </si>
   <si>
-    <t>22.4 (15.4-30.7)</t>
-  </si>
-  <si>
-    <t>29.3 (16.1-45.5)</t>
-  </si>
-  <si>
-    <t>0.2 (0.0-1.3)</t>
+    <t>22.7 (15.7-30.9)</t>
+  </si>
+  <si>
+    <t>31.2 (20.2-44.1)</t>
+  </si>
+  <si>
+    <t>0.3 (0.0-1.2)</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>3.7 (0.1-19.0)</t>
-  </si>
-  <si>
-    <t>17.9 (14.4-21.8)</t>
-  </si>
-  <si>
-    <t>19.2 (13.1-26.5)</t>
-  </si>
-  <si>
-    <t>14.8 (8.1-23.9)</t>
-  </si>
-  <si>
-    <t>22.2 (8.6-42.3)</t>
-  </si>
-  <si>
-    <t>14.4 (8.8-21.8)</t>
-  </si>
-  <si>
-    <t>34.1 (20.1-50.6)</t>
-  </si>
-  <si>
-    <t>7.3 (5.0-10.1)</t>
-  </si>
-  <si>
-    <t>5.5 (2.4-10.5)</t>
-  </si>
-  <si>
-    <t>9.1 (4.0-17.1)</t>
-  </si>
-  <si>
-    <t>10.4 (5.7-17.1)</t>
-  </si>
-  <si>
-    <t>7.3 (1.5-19.9)</t>
-  </si>
-  <si>
-    <t>36.7 (32.2-41.4)</t>
-  </si>
-  <si>
-    <t>45.2 (37.0-53.6)</t>
-  </si>
-  <si>
-    <t>36.4 (26.4-47.3)</t>
-  </si>
-  <si>
-    <t>29.6 (13.8-50.2)</t>
-  </si>
-  <si>
-    <t>33.6 (25.4-42.6)</t>
-  </si>
-  <si>
-    <t>24.4 (12.4-40.3)</t>
+    <t>2.6 (0.3-9.1)</t>
+  </si>
+  <si>
+    <t>16.0 (13.2-19.1)</t>
+  </si>
+  <si>
+    <t>17.1 (12.3-22.7)</t>
+  </si>
+  <si>
+    <t>15.9 (9.5-24.2)</t>
+  </si>
+  <si>
+    <t>11.7 (5.5-21.0)</t>
+  </si>
+  <si>
+    <t>14.1 (8.6-21.3)</t>
+  </si>
+  <si>
+    <t>25.0 (15.0-37.4)</t>
+  </si>
+  <si>
+    <t>8.9 (6.8-11.4)</t>
+  </si>
+  <si>
+    <t>10.1 (6.5-14.9)</t>
+  </si>
+  <si>
+    <t>9.3 (4.6-16.5)</t>
+  </si>
+  <si>
+    <t>5.2 (1.4-12.8)</t>
+  </si>
+  <si>
+    <t>10.2 (5.5-16.7)</t>
+  </si>
+  <si>
+    <t>7.8 (2.6-17.3)</t>
+  </si>
+  <si>
+    <t>38.7 (34.8-42.7)</t>
+  </si>
+  <si>
+    <t>44.7 (38.0-51.6)</t>
+  </si>
+  <si>
+    <t>37.4 (28.2-47.3)</t>
+  </si>
+  <si>
+    <t>37.7 (26.9-49.4)</t>
+  </si>
+  <si>
+    <t>34.4 (26.2-43.3)</t>
+  </si>
+  <si>
+    <t>32.8 (21.6-45.7)</t>
   </si>
 </sst>
 </file>
@@ -373,13 +370,10 @@
       <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
         <v>8738791.0</v>
@@ -394,63 +388,60 @@
         <v>372.0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>441.0</v>
+        <v>607.0</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>38.0</v>
+        <v>50.0</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K2" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M2" t="n">
-        <v>92.0</v>
+        <v>127.0</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="n">
-        <v>79.0</v>
+        <v>97.0</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S2" t="n">
-        <v>32.0</v>
+        <v>54.0</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U2" t="n">
-        <v>162.0</v>
+        <v>235.0</v>
       </c>
       <c r="V2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" t="n">
-        <v>18.0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
         <v>1861791.0</v>
@@ -465,63 +456,60 @@
         <v>527.0</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>146.0</v>
+        <v>217.0</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3" t="n">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O3" t="n">
         <v>0.0</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.0</v>
+        <v>37.0</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S3" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U3" t="n">
-        <v>66.0</v>
+        <v>97.0</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="n">
         <v>1451080.0</v>
@@ -536,63 +524,60 @@
         <v>348.0</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>88.0</v>
+        <v>107.0</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M4" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O4" t="n">
         <v>0.0</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="R4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U4" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" t="n">
-        <v>18.0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>1472184.0</v>
@@ -607,63 +592,60 @@
         <v>376.0</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>27.0</v>
+        <v>77.0</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="n">
         <v>2.0</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" t="n">
         <v>4.0</v>
       </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="U5" t="n">
-        <v>8.0</v>
+        <v>29.0</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
         <v>833178.0</v>
@@ -678,63 +660,60 @@
         <v>240.0</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
         <v>8.0</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
         <v>3.0</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" t="n">
         <v>2.0</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S6" t="n">
         <v>0.0</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U6" t="n">
         <v>2.0</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>2567001.0</v>
@@ -749,63 +728,60 @@
         <v>294.0</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>125.0</v>
+        <v>128.0</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" t="n">
         <v>11.0</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" t="n">
         <v>9.0</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M7" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O7" t="n">
         <v>0.0</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q7" t="n">
         <v>18.0</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S7" t="n">
         <v>13.0</v>
       </c>
       <c r="T7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U7" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
         <v>553557.0</v>
@@ -820,58 +796,55 @@
         <v>461.0</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="n">
-        <v>41.0</v>
+        <v>64.0</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" t="n">
         <v>1.0</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8" t="n">
         <v>1.0</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O8" t="n">
         <v>0.0</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S8" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U8" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.0</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
